--- a/documents/mass/marker_decode_0427.xlsx
+++ b/documents/mass/marker_decode_0427.xlsx
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2761,7 +2761,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="3">
-        <v>923.56</v>
+        <v>923.05600000000004</v>
       </c>
       <c r="C76" s="3">
         <v>72.349999999999994</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H76" s="4">
         <f t="shared" si="2"/>
-        <v>0.50399999999990541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>226.94300000000001</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" ref="H98:H129" si="3">B98-G98</f>
+        <f t="shared" ref="H98:H101" si="3">B98-G98</f>
         <v>0</v>
       </c>
     </row>
